--- a/biology/Zoologie/Colpodes/Colpodes.xlsx
+++ b/biology/Zoologie/Colpodes/Colpodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colpodes est un genre de coléoptères de la famille des Carabidae, de la sous-famille des Platyninae, de la tribu des Platynini et de la sous-tribu des Platynina. Le système de reproduction a été étudié par Z. Gerbe dans les années 1860.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colpodes abropoides Chaudoir, 1879[2]:361–362
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Colpodes abropoides Chaudoir, 1879:361–362
 Colpodes abruptus Andrewes, 1931
 Colpodes acanthodes Andrewes, 1930
 Colpodes acroglyptus Bates, 1892
@@ -521,7 +535,7 @@
 Colpodes adonis Tschitscherine, 1895
 Colpodes aeneipennis (Dejean, 1831)
 Colpodes aeneolus Andrewes, 1931
-Colpodes aenescens Chaudoir, 1879[2]:368
+Colpodes aenescens Chaudoir, 1879:368
 Colpodes aeruginosus Landin, 1955
 Colpodes anachoreta (Fairmaire, 1849)
 Colpodes andrewesi Heller, 1926
@@ -529,27 +543,27 @@
 Colpodes angustus Andrewes, 1930
 Colpodes anomalus Andrewes, 1927
 Colpodes antedens Darlington, 1952
-Colpodes antennatus Louwerens, 1953[3]:108–109
+Colpodes antennatus Louwerens, 1953:108–109
 Colpodes apotomus Andrewes, 1931
 Colpodes arrowi Jedlicka, 1934
 Colpodes asemus Jedlicka, 1934
 Colpodes asthenes Andrewes, 1931
 Colpodes atrocyaneus Landin, 1955
-Colpodes attenuatus Louwerens, 1953[3]:132–133
+Colpodes attenuatus Louwerens, 1953:132–133
 Colpodes azurescens Landin, 1955
-Colpodes babaulti Louwerens, 1953[3]:134–135
-Colpodes baconi Chaudoir, 1878[2]:311–312
+Colpodes babaulti Louwerens, 1953:134–135
+Colpodes baconi Chaudoir, 1878:311–312
 Colpodes balthasari Jedlicka, 1940
 Colpodes beccarii Andrewes, 1929
-Colpodes beckingi Louwerens, 1953[3]:139–141
+Colpodes beckingi Louwerens, 1953:139–141
 Colpodes bennigseni Sloane, 1907
 Colpodes bilineatus Andrewes, 1931
 Colpodes bipars (Walker, 1858)
 Colpodes bipunctatus Jedlicka, 1935
 Colpodes bispina (Motschulsky, 1859)
-Colpodes bloetei Louwerens, 1953[3]:114–115
+Colpodes bloetei Louwerens, 1953:114–115
 Colpodes boninensis Kasahara, 1991
-Colpodes brittoni Louwerens, 1953[3]:121–122
+Colpodes brittoni Louwerens, 1953:121–122
 Colpodes brunneus (W.S.Macleay, 1825)
 Colpodes brunnicolor Louwerens, 1955
 Colpodes cardioderus Fairmaire, 1889
@@ -560,11 +574,11 @@
 Colpodes chalcochiton Andrewes, 1929
 Colpodes chinensis Jedlicka, 1934
 Colpodes chlorodes Andrewes, 1947
-Colpodes chloropterus Chaudoir, 1879[2]:339–340
+Colpodes chloropterus Chaudoir, 1879:339–340
 Colpodes cimmerius Andrewes, 1930
 Colpodes coelitis Bates, 1892
 Colpodes concolor Louwerens, 1955
-Colpodes convexitarsis Louwerens, 1953[3]:130–131
+Colpodes convexitarsis Louwerens, 1953:130–131
 Colpodes elegans Andrewes, 1929
 Colpodes latus Louwerens, 1949
 Colpodes nigratus Fairmaire, 1881</t>
